--- a/src/main/webapp/incoming/teacher/studentList/student.xlsx
+++ b/src/main/webapp/incoming/teacher/studentList/student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86137\IdeaProjects\OnlineExam2\src\main\webapp\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86137\IdeaProjects\OnlineExam3\src\main\webapp\incoming\teacher\studentList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93155089-5C1A-4E75-9FF5-07B71E3AA1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B828C9A-5D12-4284-BB1E-873B1AFE28CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2205" windowWidth="15390" windowHeight="9533" xr2:uid="{774B7B5D-190C-4002-B625-15031C54BCC2}"/>
+    <workbookView xWindow="3285" yWindow="5160" windowWidth="15390" windowHeight="9533" xr2:uid="{774B7B5D-190C-4002-B625-15031C54BCC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,45 +25,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>liming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baojun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>honghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isExamStarting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>className</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-2</t>
+  </si>
+  <si>
+    <t>18-3</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCommit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,8 +132,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,80 +453,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE802F4-5BB2-4BDF-9339-AE1A790447D3}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>1812030003</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>123123</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>2</v>
+        <v>1812030010</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>123123</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>3</v>
+        <v>1812030014</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>123123</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/incoming/teacher/studentList/student.xlsx
+++ b/src/main/webapp/incoming/teacher/studentList/student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86137\IdeaProjects\OnlineExam3\src\main\webapp\incoming\teacher\studentList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B828C9A-5D12-4284-BB1E-873B1AFE28CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D65A2-1BCA-415A-BC8F-B1414E881092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="5160" windowWidth="15390" windowHeight="9533" xr2:uid="{774B7B5D-190C-4002-B625-15031C54BCC2}"/>
+    <workbookView xWindow="3285" yWindow="3548" windowWidth="15390" windowHeight="9532" xr2:uid="{774B7B5D-190C-4002-B625-15031C54BCC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -510,7 +510,7 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>

--- a/src/main/webapp/incoming/teacher/studentList/student.xlsx
+++ b/src/main/webapp/incoming/teacher/studentList/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86137\IdeaProjects\OnlineExam3\src\main\webapp\incoming\teacher\studentList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D65A2-1BCA-415A-BC8F-B1414E881092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A97450F-5204-4AC2-81E1-6CA2B6559E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="3548" windowWidth="15390" windowHeight="9532" xr2:uid="{774B7B5D-190C-4002-B625-15031C54BCC2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>liming</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,18 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>examId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isExamStarting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>className</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +70,6 @@
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isCommit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE802F4-5BB2-4BDF-9339-AE1A790447D3}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -464,7 +448,7 @@
     <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -475,25 +459,13 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1812030003</v>
       </c>
@@ -504,25 +476,13 @@
         <v>123123</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1812030010</v>
       </c>
@@ -533,25 +493,13 @@
         <v>123123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1812030014</v>
       </c>
@@ -562,22 +510,10 @@
         <v>123123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>36</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
